--- a/wine3.xlsx
+++ b/wine3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladislav.Kaznacheev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladislav.Kaznacheev\Desktop\Python\wine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
     <t>image</t>
   </si>
   <si>
-    <t>Stock</t>
+    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
